--- a/data/income_statement/2digits/size/60_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/60_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>60-Programming and broadcasting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>60-Programming and broadcasting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,296 +841,336 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>168681.9519</v>
+        <v>179768.15004</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>181547.57298</v>
+        <v>204231.90035</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>230608.08965</v>
+        <v>258793.24162</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>290295.11803</v>
+        <v>338117.98681</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>417793.18898</v>
+        <v>458106.01393</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>436379.16266</v>
+        <v>477435.3850700001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>446515.88093</v>
+        <v>476477.06534</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>408433.14425</v>
+        <v>460102.60035</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>399898.9946499999</v>
+        <v>420944.93044</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>616820.5399300001</v>
+        <v>663792.60862</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>563198.7554199999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>645096.78183</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>588196.949</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>149121.28288</v>
+        <v>161688.43844</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>169606.58895</v>
+        <v>192971.80426</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>215685.26515</v>
+        <v>243650.92675</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>268821.36451</v>
+        <v>312023.02923</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>392786.19792</v>
+        <v>434998.84454</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>410826.10778</v>
+        <v>451733.06336</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>421553.2864700001</v>
+        <v>449021.15215</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>389144.91962</v>
+        <v>441577.85002</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>385391.56664</v>
+        <v>401271.81189</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>537504.78773</v>
+        <v>587475.4831000001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>528415.8921599999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>616093.67325</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>561478.201</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>6002.698399999999</v>
+        <v>6014.61459</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>3591.16759</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6372.49204</v>
+        <v>6376.99169</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>9477.062019999999</v>
+        <v>11288.75984</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>11033.01397</v>
+        <v>10593.25052</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>10492.31586</v>
+        <v>10285.21812</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11784.79367</v>
+        <v>11181.05131</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6068.90277</v>
+        <v>4528.68221</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2988.5887</v>
+        <v>7751.04955</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>46919.32601</v>
+        <v>43928.12338999999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>17543.14493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>17051.26832</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>15965.332</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>13557.97062</v>
+        <v>12065.09701</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>8349.816440000001</v>
+        <v>7668.9285</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>8550.332460000001</v>
+        <v>8765.323179999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>11996.6915</v>
+        <v>14806.19774</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>13973.97709</v>
+        <v>12513.91887</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>15060.73902</v>
+        <v>15417.10359</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>13177.80079</v>
+        <v>16274.86188</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>13219.32186</v>
+        <v>13996.06812</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>11518.83931</v>
+        <v>11922.069</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>32396.42619</v>
+        <v>32389.00213</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>17239.71833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11951.84026</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>10753.416</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2619.62176</v>
+        <v>1254.71056</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1822.34085</v>
+        <v>1604.41365</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3990.090650000001</v>
+        <v>3565.30318</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7299.31186</v>
+        <v>7702.352879999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>7803.46325</v>
+        <v>8158.60775</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8202.71876</v>
+        <v>11347.4042</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9463.706050000001</v>
+        <v>9755.38802</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>9311.264429999999</v>
+        <v>11625.87023</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>9756.67967</v>
+        <v>11293.66991</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>20930.59633</v>
+        <v>23026.90068</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>24979.63297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>27128.04973</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>24588.342</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2486.56384</v>
+        <v>1120.50259</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1693.62623</v>
+        <v>1471.12175</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3560.49926</v>
+        <v>3132.30048</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4987.23717</v>
+        <v>4901.27417</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3962.4385</v>
+        <v>4317.583</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4535.17333</v>
+        <v>7686.99354</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3761.07398</v>
+        <v>3851.02159</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4548.652440000001</v>
+        <v>5929.39562</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4861.29511</v>
+        <v>5377.66257</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7277.17994</v>
+        <v>9393.12386</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>11974.83955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12497.23737</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>9733.544</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>60.03773</v>
+        <v>61.18778</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>88.57791999999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>169.84779</v>
+        <v>169.53029</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>183.13155</v>
+        <v>672.1355699999999</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>1459.59708</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1361.67348</v>
+        <v>1359.9396</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1322.8568</v>
+        <v>1322.55235</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1567.30506</v>
+        <v>1888.45049</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1223.90501</v>
+        <v>1990.76469</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3349.89148</v>
+        <v>3558.91972</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3163.50325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3507.54234</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3828.187</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>73.02019</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>40.1367</v>
+        <v>44.71398000000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>259.7436</v>
+        <v>263.47241</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>2128.94314</v>
@@ -1238,133 +1179,148 @@
         <v>2381.42767</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2305.87195</v>
+        <v>2300.47106</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4379.77527</v>
+        <v>4581.81408</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3195.30693</v>
+        <v>3808.02412</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3671.47955</v>
+        <v>3925.242650000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>10303.52491</v>
+        <v>10074.8571</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>9841.29017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11123.27002</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>11026.611</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>166062.33014</v>
+        <v>178513.43948</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>179725.23213</v>
+        <v>202627.4867</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>226617.999</v>
+        <v>255227.93844</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>282995.80617</v>
+        <v>330415.63393</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>409989.7257299999</v>
+        <v>449947.40618</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>428176.4439</v>
+        <v>466087.98087</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>437052.17488</v>
+        <v>466721.6773200001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>399121.87982</v>
+        <v>448476.73012</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>390142.31498</v>
+        <v>409651.26053</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>595889.9436</v>
+        <v>640765.7079400001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>538219.1224499999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>617968.7320999999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>563608.607</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>135759.49692</v>
+        <v>156713.45175</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>157793.63042</v>
+        <v>177523.89642</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>183041.52878</v>
+        <v>206232.0837</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>241473.33676</v>
+        <v>284321.19043</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>333457.76338</v>
+        <v>370432.84144</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>345614.47975</v>
+        <v>384965.86426</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>390057.2617800001</v>
+        <v>423976.4517</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>357233.41148</v>
+        <v>394413.60611</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>338857.49441</v>
+        <v>353703.49586</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>480849.65535</v>
+        <v>512012.02018</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>441370.02676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>469158.97277</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>448902.387</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3085.26612</v>
+        <v>3053.41404</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4214.31884</v>
+        <v>4187.41149</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>661.3175200000001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4546.53335</v>
+        <v>4372.06109</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1994.21015</v>
+        <v>1847.64345</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>3042.36986</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1950.36851</v>
+        <v>1439.78872</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>1164.2947</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>559.77535</v>
+        <v>513.69074</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>4</v>
@@ -1372,113 +1328,128 @@
       <c r="M15" s="48" t="n">
         <v>17577.83467</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>778.497</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2813.09457</v>
+        <v>3355.59999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>7610.87492</v>
+        <v>7462.417820000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>9384.447460000001</v>
+        <v>9004.70808</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>12049.03246</v>
+        <v>11847.66765</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5277.453649999999</v>
+        <v>5611.407220000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6327.76896</v>
+        <v>5572.7363</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2045.79691</v>
+        <v>2174.8377</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6319.73803</v>
+        <v>8907.044199999998</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>5284.31664</v>
+        <v>5989.14214</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>14968.02162</v>
+        <v>14806.93463</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>9292.312840000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>31088.993</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>129812.98124</v>
+        <v>150266.36147</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>145917.69409</v>
+        <v>165800.92278</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>172401.37962</v>
+        <v>196152.59137</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>224649.77964</v>
+        <v>267931.18979</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>326089.40544</v>
+        <v>362863.15588</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>335909.11697</v>
+        <v>375999.8502999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>385518.29682</v>
+        <v>420104.93852</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>349015.79683</v>
+        <v>383650.59455</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>332664.21789</v>
+        <v>346851.47845</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>464827.40168</v>
+        <v>496150.8535</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>408399.66308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>436188.60909</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>414997.481</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>48.15499</v>
+        <v>38.07625</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>50.74257</v>
+        <v>73.14433</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>594.3841799999999</v>
+        <v>413.46673</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>227.99131</v>
+        <v>170.2719</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>96.69414000000002</v>
+        <v>110.63489</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>335.22396</v>
+        <v>350.9078</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>542.7995399999999</v>
+        <v>256.88676</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>733.5819200000001</v>
+        <v>691.6726600000001</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>349.18453</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>6100.21617</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2037.416</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>30302.83322</v>
+        <v>21799.98773</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>21931.60171</v>
+        <v>25103.59028</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>43576.47022</v>
+        <v>48995.85474</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>41522.46941</v>
+        <v>46094.4435</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>76531.96235000002</v>
+        <v>79514.56474</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>82561.96415</v>
+        <v>81122.11661</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>46994.9131</v>
+        <v>42745.22562</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>41888.46834000001</v>
+        <v>54063.12401000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>51284.82057</v>
+        <v>55947.76467</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>115040.28825</v>
+        <v>128753.68776</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>96849.09569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>148809.75933</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>114706.22</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>55139.48262</v>
+        <v>61175.04788000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>53250.30582</v>
+        <v>63193.82409</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>74203.97276</v>
+        <v>74843.12390000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>81529.85458</v>
+        <v>92553.66988</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>105936.99203</v>
+        <v>121380.36748</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>128711.24478</v>
+        <v>143461.52981</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>109589.1582</v>
+        <v>116877.99006</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>111772.86982</v>
+        <v>160706.48925</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>124411.60441</v>
+        <v>164378.22713</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>163595.62019</v>
+        <v>202390.3393</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>162632.67989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>228986.8179</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>190710.991</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2.90249</v>
@@ -1606,173 +1592,198 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>10937.66879</v>
+        <v>11897.55889</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>10826.8283</v>
+        <v>16006.22652</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>15468.70998</v>
+        <v>16775.65451</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>20873.46121</v>
+        <v>24172.35685</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>35845.31119</v>
+        <v>41907.88978</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>39981.07969999999</v>
+        <v>47449.36734</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>29764.36132</v>
+        <v>32540.95458</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>29031.31891</v>
+        <v>41101.21323</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>37989.18829999999</v>
+        <v>39750.58837</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>44409.61001</v>
+        <v>53083.98276000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>37279.1399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>63530.1723</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>61869.6</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>44198.91134</v>
+        <v>49274.5865</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>42420.76768</v>
+        <v>47184.88772999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>58733.58867</v>
+        <v>58065.79528</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>60656.39337000001</v>
+        <v>68381.31303</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>69916.88322</v>
+        <v>79297.68007999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>87888.98543</v>
+        <v>95170.98281999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>79562.25728999999</v>
+        <v>84074.49589000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>82273.76006</v>
+        <v>119137.48517</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>86422.41611000001</v>
+        <v>124627.63876</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>119185.99858</v>
+        <v>149306.34494</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>125353.53999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>165456.6456</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>128841.391</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-24836.6494</v>
+        <v>-39375.06015</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-31318.70411</v>
+        <v>-38090.23381000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-30627.50254</v>
+        <v>-25847.26916</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-40007.38517</v>
+        <v>-46459.22638</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-29405.02968</v>
+        <v>-41865.80273999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-46149.28063</v>
+        <v>-62339.4132</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-62594.2451</v>
+        <v>-74132.76444</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-69884.40148</v>
+        <v>-106643.36524</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-73126.78384</v>
+        <v>-108430.46246</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-48555.33194</v>
+        <v>-73636.65154000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-65783.5842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-80177.05856999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-76004.77099999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>20484.84065</v>
+        <v>29311.84374</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>22712.55511</v>
+        <v>23875.16693</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>30296.88701</v>
+        <v>32429.47415</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>27424.39306</v>
+        <v>31029.55343</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>15039.88038</v>
+        <v>19388.94211</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>19739.24447</v>
+        <v>22162.95152</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>18869.70789</v>
+        <v>18990.85941</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>20057.34525</v>
+        <v>41801.60144</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>22612.58734</v>
+        <v>57456.21493</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>86053.54823</v>
+        <v>149673.42241</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>118760.11744</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>132246.53097</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>103034.995</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>159.22402</v>
+        <v>6.14533</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>0</v>
@@ -1781,7 +1792,7 @@
         <v>0.00048</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>263.6707</v>
+        <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>1.10934</v>
@@ -1796,16 +1807,21 @@
         <v>124.09808</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>197.7164</v>
+        <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>296.49668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>168.64567</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>318.276</v>
+        <v>1.53691</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1319.52455</v>
+        <v>891.41725</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1662.22949</v>
+        <v>1548.63999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1935.59387</v>
+        <v>1345.91779</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2304.56911</v>
+        <v>1599.94867</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2083.17355</v>
+        <v>2165.5433</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3483.39015</v>
+        <v>4499.09196</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3472.43405</v>
+        <v>2669.66236</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4547.36613</v>
+        <v>8650.775519999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3754.99059</v>
+        <v>9224.674570000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>14878.99955</v>
+        <v>21721.11407</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>13390.14735</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>25439.3143</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>18751.186</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3.15494</v>
@@ -1892,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>255.37641</v>
+        <v>314.62541</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>220.45571</v>
@@ -1907,157 +1933,177 @@
         <v>25.64006</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1.5252</v>
+        <v>12.53389</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1686.72258</v>
+        <v>1708.57112</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>0.69789</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>206.41177</v>
+        <v>393.49117</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>175.1441</v>
+        <v>163.19203</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>24.99317</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>479.78446</v>
+        <v>82.58561999999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>134.90808</v>
+        <v>152.70248</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>696.3334</v>
+        <v>667.55233</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>833.69304</v>
+        <v>655.02426</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>764.1544</v>
+        <v>513.70824</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>193.00802</v>
+        <v>906.78126</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1125.00053</v>
+        <v>440.80053</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2913.54558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2531.03221</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>320.778</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>3.43705</v>
+        <v>7.86391</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>5.99238</v>
+        <v>5.581560000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>22.08244</v>
+        <v>17.91943</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>9.09933</v>
+        <v>9.04726</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>39.8905</v>
+        <v>197.28089</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>13.57662</v>
+        <v>8.26676</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>41.8065</v>
+        <v>33.24724</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>0</v>
+        <v>0.04028</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>488.62661</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>280.96</v>
+        <v>1.56448</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3203.47141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7.11755</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>15.161</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3181.57809</v>
+        <v>13079.16967</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2544.71287</v>
+        <v>2763.65211</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4766.39945</v>
+        <v>3528.46636</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4227.70072</v>
+        <v>3991.11429</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4150.706</v>
+        <v>6483.69494</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5622.42521</v>
+        <v>8151.00851</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>7888.07431</v>
+        <v>9590.965619999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4334.67015</v>
+        <v>22402.72423</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4465.73737</v>
+        <v>13897.25593</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>59736.89445</v>
+        <v>96582.63859</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>91575.38898999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>94134.24371</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>58680.634</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>9397.891180000001</v>
+        <v>9675.120129999999</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>13196.81796</v>
+        <v>13637.23545</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>16758.55636</v>
+        <v>16902.34053</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>16040.26972</v>
+        <v>16091.73698</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>206.58906</v>
+        <v>91.71516</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>84.37149000000001</v>
+        <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2099,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>0</v>
+        <v>11.235</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6372.843069999999</v>
+        <v>5261.62667</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4968.43429</v>
+        <v>5750.72046</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>6533.88531</v>
+        <v>10295.21146</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4125.056619999999</v>
+        <v>9017.20751</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8036.06053</v>
+        <v>10173.12338</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>9512.286480000001</v>
+        <v>8678.816510000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6289.78393</v>
+        <v>6003.547960000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>10349.74905</v>
+        <v>10161.93896</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>13586.12667</v>
+        <v>32814.77847999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8141.43513</v>
+        <v>29212.91403</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>7380.36954</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10134.12531</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>25266.594</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>12981.91814</v>
+        <v>13890.21722</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>16415.85425</v>
+        <v>16615.53501</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>23857.06375</v>
+        <v>25549.99508</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>19185.56866</v>
+        <v>21804.62669</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>8752.536340000001</v>
+        <v>10805.85007</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>13326.9778</v>
+        <v>16876.02687</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>15148.36672</v>
+        <v>15800.03551</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7776.81384</v>
+        <v>11830.45219</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>9606.362009999999</v>
+        <v>18069.51244</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>71529.44971000002</v>
+        <v>102651.87773</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>98209.18939</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>103850.09143</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>78101.679</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>33.54662</v>
+        <v>378.35871</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>60.92094</v>
+        <v>64.45619000000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>125.38784</v>
+        <v>170.9049</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>302.2717699999999</v>
+        <v>718.96405</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>777.9753799999999</v>
+        <v>792.1143199999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>220.75361</v>
+        <v>281.3935300000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>561.80801</v>
+        <v>569.75318</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>455.03895</v>
+        <v>2331.7052</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2171.23366</v>
+        <v>2370.90859</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4749.45354</v>
+        <v>5560.21537</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2194.71653</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2747.25694</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2513.211</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>728.72072</v>
+        <v>642.4890300000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>279.58106</v>
+        <v>261.44273</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>364.80337</v>
+        <v>543.07777</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>334.90564</v>
+        <v>1499.00618</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1114.6268</v>
+        <v>1105.856</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6189.77053</v>
+        <v>6108.182839999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8577.086219999999</v>
+        <v>8530.31343</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>343.58735</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>550.39346</v>
+        <v>291.21893</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>972.8912800000001</v>
+        <v>994.60069</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3363.60611</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2946.898110000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>182.949</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.70798</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>12.512</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2791.36609</v>
+        <v>3108.74746</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2635.73468</v>
+        <v>2852.25182</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>6355.799619999999</v>
+        <v>7778.07295</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2070.16144</v>
+        <v>2331.80065</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5895.485970000001</v>
+        <v>7914.48126</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5349.39935</v>
+        <v>7461.422820000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4987.13714</v>
+        <v>6196.53307</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5009.29227</v>
+        <v>7710.47916</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5657.98282</v>
+        <v>15110.96874</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>65122.08385</v>
+        <v>95403.89575</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>91537.76983</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>96458.93625</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>69254.944</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2363,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0.29614</v>
+        <v>48.06881</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>38.37926</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>204.01033</v>
+        <v>1799.1832</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>9426.576730000001</v>
+        <v>9758.91404</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>13436.86935</v>
+        <v>13434.63605</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>16995.77059</v>
+        <v>17042.63713</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>16477.89447</v>
+        <v>17206.7478</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>926.06467</v>
+        <v>955.0149699999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1363.00346</v>
+        <v>1225.80396</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>987.95309</v>
+        <v>469.0535699999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1967.17577</v>
+        <v>1442.96098</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1226.60598</v>
+        <v>296.27009</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>685.0210400000001</v>
+        <v>693.16592</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1113.09692</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1697.00013</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6138.063</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4415.38012</v>
+        <v>15558.44191</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5841.51984</v>
+        <v>10666.91326</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4751.135679999999</v>
+        <v>10558.75225</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>9769.8812</v>
+        <v>11705.77917</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>10909.21596</v>
+        <v>12108.34181</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8992.27468</v>
+        <v>10225.62287</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>16763.75044</v>
+        <v>18221.34655</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>9251.51511</v>
+        <v>83330.94907999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9140.821689999999</v>
+        <v>30401.2734</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>18720.28397</v>
+        <v>17844.38947</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>20834.58892</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>27826.80862</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>12435.098</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4408.27491</v>
+        <v>15551.3367</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5841.51984</v>
+        <v>10666.91326</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4706.73427</v>
+        <v>10558.75225</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>9720.147870000001</v>
+        <v>11656.04584</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>10859.99697</v>
+        <v>12059.12282</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8952.470449999999</v>
+        <v>10006.71768</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>16730.67471</v>
+        <v>17956.88631</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>9061.69692</v>
+        <v>82901.01462999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9059.191550000001</v>
+        <v>29980.58066</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17424.29138</v>
+        <v>16558.64609</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>20204.34942</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>27196.56912</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>12418.269</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>7.10521</v>
@@ -2555,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>44.40141000000001</v>
+        <v>0</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>49.73333</v>
@@ -2564,223 +2675,253 @@
         <v>49.21899</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>39.80423</v>
+        <v>218.90519</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>33.07572999999999</v>
+        <v>264.46024</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>189.81819</v>
+        <v>429.93445</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>81.63014</v>
+        <v>420.69274</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1295.99259</v>
+        <v>1285.74338</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>630.2395</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>16.829</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-21749.10701</v>
+        <v>-39511.87554</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-30863.52309</v>
+        <v>-41497.51515</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-28938.81496</v>
+        <v>-29526.54234</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-41538.44197</v>
+        <v>-48940.07881</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-34026.9016</v>
+        <v>-45391.05251000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-48729.28864</v>
+        <v>-67278.11142</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-75636.65437</v>
+        <v>-89163.28709</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-66855.38518</v>
+        <v>-160003.16507</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-69261.3802</v>
+        <v>-99445.03336999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-52751.51739</v>
+        <v>-44459.49633000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-66067.24506999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-79607.42765000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-63506.553</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1610.99383</v>
+        <v>1855.60354</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1373.49558</v>
+        <v>999.1398</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1935.93139</v>
+        <v>1957.27256</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4453.65157</v>
+        <v>4436.59249</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7153.82592</v>
+        <v>8730.95628</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4390.704119999999</v>
+        <v>4851.56936</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10750.29126</v>
+        <v>11751.75682</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>6892.618310000001</v>
+        <v>6650.55483</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>6680.40521</v>
+        <v>5417.45887</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>5646.977089999999</v>
+        <v>3933.684400000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>12810.35267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>12447.08421</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>9666.992</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>9.598409999999999</v>
+        <v>9.479220000000002</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>103.26625</v>
+        <v>109.39125</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>98.70884</v>
+        <v>57.85708</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>563.60603</v>
+        <v>384.88094</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>72.88044000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>28.32634</v>
+        <v>31.98195</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>84.19192</v>
+        <v>82.43783000000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>11.86424</v>
+        <v>11.96827</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>296.50448</v>
+        <v>320.5658</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>244.52529</v>
+        <v>287.22228</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>885.2013900000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1079.92119</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>242.685</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1601.39542</v>
+        <v>1846.12432</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1270.22933</v>
+        <v>889.74855</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1837.22255</v>
+        <v>1899.41548</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3890.04554</v>
+        <v>4051.71155</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>7080.94548</v>
+        <v>8658.07584</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4362.377779999999</v>
+        <v>4819.58741</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10666.09934</v>
+        <v>11669.31899</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>6880.75407</v>
+        <v>6638.586560000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6383.90073</v>
+        <v>5096.89307</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>5402.4518</v>
+        <v>3646.46212</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>11925.15128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>11367.16302</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>9424.307000000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6891.742770000001</v>
+        <v>7380.26142</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>11955.0551</v>
+        <v>12023.67723</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>31799.06555</v>
+        <v>36877.56864</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>24555.24625</v>
+        <v>25459.80546</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>24139.66349</v>
+        <v>24572.84939</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>12905.18028</v>
+        <v>11096.24089</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>21581.90614</v>
+        <v>20830.54505</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>40928.35327000001</v>
+        <v>42769.00387000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>8850.19802</v>
+        <v>8405.501199999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>19583.26756</v>
+        <v>18546.91087</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>10120.68359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>11080.80898</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>9105.871999999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1.48617</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>6.009</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>471.62691</v>
+        <v>495.36673</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>549.6082700000001</v>
+        <v>568.1545900000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1738.37978</v>
+        <v>2020.78187</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2192.55129</v>
+        <v>2157.85532</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1503.99364</v>
+        <v>1602.26493</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1143.8036</v>
+        <v>1587.02074</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>15306.20809</v>
+        <v>16153.839</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>385.46113</v>
+        <v>444.67911</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>248.43076</v>
+        <v>160.77629</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1511.08517</v>
+        <v>8228.732120000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1013.71355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1166.80389</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>290.028</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6418.62969</v>
+        <v>6883.408520000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11403.46527</v>
+        <v>11453.54108</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>29811.28647</v>
+        <v>34607.38747</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>21560.75872</v>
+        <v>22500.0139</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>22635.66985</v>
+        <v>22970.58446</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>11761.37668</v>
+        <v>9509.220150000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6275.69805</v>
+        <v>4676.70605</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>40542.89214</v>
+        <v>42324.32476</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8601.767260000001</v>
+        <v>8244.724910000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>18072.18239</v>
+        <v>10318.17875</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>9106.970039999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>9914.005090000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>8809.834999999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-27029.85595</v>
+        <v>-45036.53341999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-41445.08261</v>
+        <v>-52522.05258</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-58801.94912</v>
+        <v>-64446.83842</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-61640.03665000001</v>
+        <v>-69963.29178</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-51012.73917</v>
+        <v>-61232.94562</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-57243.7648</v>
+        <v>-73522.78295000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-86468.26925</v>
+        <v>-98242.07531999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-100891.12014</v>
+        <v>-196121.61411</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-71431.17301</v>
+        <v>-102433.0757</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-66687.80786</v>
+        <v>-59072.7228</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-63377.57599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-78241.15241999998</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-62945.433</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1497.43883</v>
+        <v>1390.03944</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1574.69334</v>
+        <v>1926.90255</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3112.90425</v>
+        <v>3567.67378</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2671.740269999999</v>
+        <v>4163.175029999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6350.47496</v>
+        <v>6768.21452</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6679.81826</v>
+        <v>6737.06787</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3638.91657</v>
+        <v>5050.79971</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>5073.94262</v>
+        <v>6241.391269999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2624.63207</v>
+        <v>3762.40138</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>8248.979139999999</v>
+        <v>9945.75224</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4946.18748</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>5088.17484</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5431.375</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-28527.29478</v>
+        <v>-46426.57286</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-43019.77595</v>
+        <v>-54448.95513</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-61914.85337</v>
+        <v>-68014.5122</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-64311.77692</v>
+        <v>-74126.46681</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-57363.21413</v>
+        <v>-68001.16014000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-63923.58306</v>
+        <v>-80259.85081999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-90107.18582</v>
+        <v>-103292.87503</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-105965.06276</v>
+        <v>-202363.00538</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-74055.80507999999</v>
+        <v>-106195.47708</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-74936.787</v>
+        <v>-69018.47503999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-68323.76347000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-83329.32725999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-68376.808</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>178</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>208</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>216</v>
+      </c>
+      <c r="H59" s="35" t="n">
         <v>212</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>228</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>258</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>248</v>
-      </c>
       <c r="I59" s="35" t="n">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>141</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>